--- a/experimental_data/GEC/Winkler1965.xlsx
+++ b/experimental_data/GEC/Winkler1965.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Winkler1965 – Determination of hepatic flow in man</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Hematocrit [%]</t>
   </si>
   <si>
-    <t>amount galactose infused [mg]</t>
-  </si>
-  <si>
-    <t>amount galactose infused [mmol]</t>
+    <t>amount galactose infused [mg/min]</t>
+  </si>
+  <si>
+    <t>amount galactose infused [mmol/min]</t>
   </si>
   <si>
     <t>hepatic blood flow [ml/min] M1</t>
@@ -62,6 +62,9 @@
     <t>Arterio-hepatovenous extraction (per cent) M2</t>
   </si>
   <si>
+    <t>GE estimate: R = I – (DeltaP x V) [mmol/min]</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>extractionM2</t>
   </si>
   <si>
+    <t>GEC</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>Measurements by indirect method of Bradley</t>
   </si>
   <si>
     <t>S.D [%] 7</t>
@@ -152,7 +161,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +178,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -212,7 +227,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -230,6 +245,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -322,15 +341,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:colOff>98280</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>587880</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:colOff>614520</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -345,8 +364,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71280" y="3121200"/>
-          <a:ext cx="2954880" cy="3036600"/>
+          <a:off x="98280" y="3121200"/>
+          <a:ext cx="2954520" cy="3205080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -361,15 +380,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:colOff>749520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:colOff>344520</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -384,8 +403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3160800" y="3066840"/>
-          <a:ext cx="3196440" cy="5766480"/>
+          <a:off x="3187800" y="3066840"/>
+          <a:ext cx="3196080" cy="6095160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -400,15 +419,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>404640</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:colOff>431640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:colOff>100080</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,8 +442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6444000" y="3158640"/>
-          <a:ext cx="5403600" cy="4743360"/>
+          <a:off x="6471000" y="3158640"/>
+          <a:ext cx="5403240" cy="5018400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,10 +463,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3:N11"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
+      <selection activeCell="O12" activeCellId="0" pane="topLeft" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -515,49 +534,55 @@
       <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="5">
-      <c r="A3" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3" s="6">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -565,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>59</v>
@@ -582,27 +607,30 @@
       <c r="G4" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <f aca="false">G4/180</f>
         <v>1.17222222222222</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -610,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>23</v>
@@ -627,7 +655,7 @@
       <c r="G5" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="7" t="n">
         <f aca="false">G5/180</f>
         <v>1.23888888888889</v>
       </c>
@@ -640,7 +668,7 @@
       <c r="K5" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <f aca="false">K5/180</f>
         <v>0.844444444444444</v>
       </c>
@@ -649,6 +677,10 @@
       </c>
       <c r="N5" s="0" t="n">
         <v>71.7</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">0.5/100*(N5+M5)*L5*0.5/1000*(I5+J5)</f>
+        <v>1.61493033333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -656,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>52</v>
@@ -673,7 +705,7 @@
       <c r="G6" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="7" t="n">
         <f aca="false">G6/180</f>
         <v>1.02777777777778</v>
       </c>
@@ -686,7 +718,7 @@
       <c r="K6" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="7" t="n">
         <f aca="false">K6/180</f>
         <v>0.894444444444444</v>
       </c>
@@ -695,6 +727,10 @@
       </c>
       <c r="N6" s="0" t="n">
         <v>58.4</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">0.5/100*(N6+M6)*L6*0.5/1000*(I6+J6)</f>
+        <v>1.18033125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -702,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>51</v>
@@ -719,7 +755,7 @@
       <c r="G7" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <f aca="false">G7/180</f>
         <v>1.48333333333333</v>
       </c>
@@ -732,7 +768,7 @@
       <c r="K7" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="7" t="n">
         <f aca="false">K7/180</f>
         <v>1.92222222222222</v>
       </c>
@@ -741,6 +777,10 @@
       </c>
       <c r="N7" s="0" t="n">
         <v>65.3</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">0.5/100*(N7+M7)*L7*0.5/1000*(I7+J7)</f>
+        <v>1.88616133333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -748,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -765,7 +805,7 @@
       <c r="G8" s="0" t="n">
         <v>366</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="7" t="n">
         <f aca="false">G8/180</f>
         <v>2.03333333333333</v>
       </c>
@@ -778,7 +818,7 @@
       <c r="K8" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="7" t="n">
         <f aca="false">K8/180</f>
         <v>1.50555555555556</v>
       </c>
@@ -787,6 +827,10 @@
       </c>
       <c r="N8" s="0" t="n">
         <v>98.5</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">0.5/100*(N8+M8)*L8*0.5/1000*(I8+J8)</f>
+        <v>2.4939151388889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -794,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>19</v>
@@ -811,7 +855,7 @@
       <c r="G9" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="7" t="n">
         <f aca="false">G9/180</f>
         <v>1.69444444444444</v>
       </c>
@@ -824,7 +868,7 @@
       <c r="K9" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="7" t="n">
         <f aca="false">K9/180</f>
         <v>1.63333333333333</v>
       </c>
@@ -833,6 +877,10 @@
       </c>
       <c r="N9" s="0" t="n">
         <v>68.4</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">0.5/100*(N9+M9)*L9*0.5/1000*(I9+J9)</f>
+        <v>2.01504333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -840,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>49</v>
@@ -857,7 +905,7 @@
       <c r="G10" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="7" t="n">
         <f aca="false">G10/180</f>
         <v>1.49444444444444</v>
       </c>
@@ -870,7 +918,7 @@
       <c r="K10" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="7" t="n">
         <f aca="false">K10/180</f>
         <v>1.31666666666667</v>
       </c>
@@ -879,6 +927,10 @@
       </c>
       <c r="N10" s="0" t="n">
         <v>78.1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">0.5/100*(N10+M10)*L10*0.5/1000*(I10+J10)</f>
+        <v>1.78889575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -886,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>17</v>
@@ -903,7 +955,7 @@
       <c r="G11" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="7" t="n">
         <f aca="false">G11/180</f>
         <v>1.59444444444444</v>
       </c>
@@ -916,7 +968,7 @@
       <c r="K11" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="7" t="n">
         <f aca="false">K11/180</f>
         <v>1.47777777777778</v>
       </c>
@@ -926,8 +978,12 @@
       <c r="N11" s="0" t="n">
         <v>90.2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12" s="6">
+      <c r="O11" s="0" t="n">
+        <f aca="false">0.5/100*(N11+M11)*L11*0.5/1000*(I11+J11)</f>
+        <v>1.8802875</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12" s="7">
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -937,32 +993,37 @@
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="8" t="n">
         <f aca="false">SUM(G4:G11)/COUNT(G4:G11)</f>
         <v>264.125</v>
       </c>
-      <c r="H14" s="7" t="n">
+      <c r="H14" s="8" t="n">
         <f aca="false">SUM(H4:H11)/COUNT(H4:H11)</f>
         <v>1.46736111111111</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="8" t="n">
         <f aca="false">SUM(I5:J11)/COUNT(I5:J11)</f>
         <v>1794.28571428571</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="8" t="n">
         <f aca="false">SUM(K4:K11)/COUNT(K4:K11)</f>
         <v>246.714285714286</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7" t="n">
+      <c r="M14" s="7"/>
+      <c r="N14" s="8" t="n">
         <f aca="false">SUM(N4:N11)/COUNT(N4:N11)</f>
         <v>75.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="J15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/experimental_data/GEC/Winkler1965.xlsx
+++ b/experimental_data/GEC/Winkler1965.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="236" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="284" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Winkler1965" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Winkler1965 – Determination of hepatic flow in man</t>
   </si>
   <si>
-    <t>case</t>
+    <t>study</t>
+  </si>
+  <si>
+    <t>subject</t>
   </si>
   <si>
     <t>sex</t>
@@ -50,6 +53,9 @@
     <t>hepatic blood flow [ml/min] M2</t>
   </si>
   <si>
+    <t>hepatic blood flow [ml/min]</t>
+  </si>
+  <si>
     <t>arterial concentrations galactose [mg/l]</t>
   </si>
   <si>
@@ -68,7 +74,7 @@
     <t>height</t>
   </si>
   <si>
-    <t>weight</t>
+    <t>bodyweight</t>
   </si>
   <si>
     <t>hematocrit</t>
@@ -86,6 +92,9 @@
     <t>bloodflowM2</t>
   </si>
   <si>
+    <t>flowLiver</t>
+  </si>
+  <si>
     <t>galAmg</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
   </si>
   <si>
     <t>GEC</t>
+  </si>
+  <si>
+    <t>win1965</t>
   </si>
   <si>
     <t>male</t>
@@ -129,7 +141,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,14 +162,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -341,15 +350,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>125280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>614520</xdr:colOff>
+      <xdr:colOff>641160</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,8 +373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="98280" y="3121200"/>
-          <a:ext cx="2954520" cy="3205080"/>
+          <a:off x="125280" y="3112200"/>
+          <a:ext cx="2954160" cy="3204720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -380,15 +389,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>749520</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:colOff>776520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:colOff>371160</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -403,8 +412,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3187800" y="3066840"/>
-          <a:ext cx="3196080" cy="6095160"/>
+          <a:off x="3214800" y="3057840"/>
+          <a:ext cx="3195720" cy="6094800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -419,15 +428,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>431640</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:colOff>458640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:colOff>126720</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -442,8 +451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6471000" y="3158640"/>
-          <a:ext cx="5403240" cy="5018400"/>
+          <a:off x="6498000" y="3149640"/>
+          <a:ext cx="5402880" cy="5018040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -463,10 +472,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
-      <selection activeCell="O12" activeCellId="0" pane="topLeft" sqref="O12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
+      <selection activeCell="P21" activeCellId="0" pane="topLeft" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -491,7 +500,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="60.45" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -534,11 +543,17 @@
       <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3" s="6">
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="3" s="6">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -549,437 +564,498 @@
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">H4/180</f>
+        <v>1.17222222222222</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">H5/180</f>
+        <v>1.23888888888889</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2390</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">0.5*(J5+K5)</f>
+        <v>2495</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <f aca="false">M5/180</f>
+        <v>0.844444444444444</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>81.6</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">0.5/100*(P5+O5)*N5*0.5/1000*(J5+K5)</f>
+        <v>1.61493033333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">H6/180</f>
+        <v>1.02777777777778</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">0.5*(J6+K6)</f>
+        <v>2125</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <f aca="false">M6/180</f>
+        <v>0.894444444444444</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">0.5/100*(P6+O6)*N6*0.5/1000*(J6+K6)</f>
+        <v>1.18033125</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">H7/180</f>
+        <v>1.48333333333333</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1510</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">0.5*(J7+K7)</f>
+        <v>1480</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="N7" s="7" t="n">
+        <f aca="false">M7/180</f>
+        <v>1.92222222222222</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">0.5/100*(P7+O7)*N7*0.5/1000*(J7+K7)</f>
+        <v>1.88616133333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">H8/180</f>
+        <v>2.03333333333333</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1780</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1680</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">0.5*(J8+K8)</f>
+        <v>1730</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="N8" s="7" t="n">
+        <f aca="false">M8/180</f>
+        <v>1.50555555555556</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">0.5/100*(P8+O8)*N8*0.5/1000*(J8+K8)</f>
+        <v>2.4939151388889</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">H9/180</f>
+        <v>1.69444444444444</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1580</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">0.5*(J9+K9)</f>
+        <v>1690</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <f aca="false">M9/180</f>
+        <v>1.63333333333333</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">0.5/100*(P9+O9)*N9*0.5/1000*(J9+K9)</f>
+        <v>2.01504333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">H10/180</f>
+        <v>1.49444444444444</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1730</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">0.5*(J10+K10)</f>
+        <v>1590</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="N10" s="7" t="n">
+        <f aca="false">M10/180</f>
+        <v>1.31666666666667</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">0.5/100*(P10+O10)*N10*0.5/1000*(J10+K10)</f>
+        <v>1.78889575</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>173</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>211</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">G4/180</f>
-        <v>1.17222222222222</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">G5/180</f>
-        <v>1.23888888888889</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>2390</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>2600</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <f aca="false">K5/180</f>
-        <v>0.844444444444444</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>81.6</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>71.7</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <f aca="false">0.5/100*(N5+M5)*L5*0.5/1000*(I5+J5)</f>
-        <v>1.61493033333333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>164</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>185</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">G6/180</f>
-        <v>1.02777777777778</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>2250</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <f aca="false">K6/180</f>
-        <v>0.894444444444444</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <f aca="false">0.5/100*(N6+M6)*L6*0.5/1000*(I6+J6)</f>
-        <v>1.18033125</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>267</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">G7/180</f>
-        <v>1.48333333333333</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="E11" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">H11/180</f>
+        <v>1.59444444444444</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1470</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1430</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">0.5*(J11+K11)</f>
         <v>1450</v>
       </c>
-      <c r="J7" s="0" t="n">
-        <v>1510</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <f aca="false">K7/180</f>
-        <v>1.92222222222222</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <f aca="false">0.5/100*(N7+M7)*L7*0.5/1000*(I7+J7)</f>
-        <v>1.88616133333333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>188</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>366</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">G8/180</f>
-        <v>2.03333333333333</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1780</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1680</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>271</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <f aca="false">K8/180</f>
-        <v>1.50555555555556</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <f aca="false">0.5/100*(N8+M8)*L8*0.5/1000*(I8+J8)</f>
-        <v>2.4939151388889</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>183</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>305</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">G9/180</f>
-        <v>1.69444444444444</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1580</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>294</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <f aca="false">K9/180</f>
-        <v>1.63333333333333</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>77.6</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>68.4</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <f aca="false">0.5/100*(N9+M9)*L9*0.5/1000*(I9+J9)</f>
-        <v>2.01504333333333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>159</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>269</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">G10/180</f>
-        <v>1.49444444444444</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1450</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1730</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>237</v>
-      </c>
-      <c r="L10" s="7" t="n">
-        <f aca="false">K10/180</f>
-        <v>1.31666666666667</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>78.1</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <f aca="false">0.5/100*(N10+M10)*L10*0.5/1000*(I10+J10)</f>
-        <v>1.78889575</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>171</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>287</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <f aca="false">G11/180</f>
-        <v>1.59444444444444</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1470</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1430</v>
-      </c>
-      <c r="K11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="L11" s="7" t="n">
-        <f aca="false">K11/180</f>
+      <c r="N11" s="7" t="n">
+        <f aca="false">M11/180</f>
         <v>1.47777777777778</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>85.3</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>90.2</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <f aca="false">0.5/100*(N11+M11)*L11*0.5/1000*(I11+J11)</f>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">0.5/100*(P11+O11)*N11*0.5/1000*(J11+K11)</f>
         <v>1.8802875</v>
       </c>
     </row>
@@ -995,37 +1071,38 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="G14" s="8" t="n">
-        <f aca="false">SUM(G4:G11)/COUNT(G4:G11)</f>
+        <f aca="false">SUM(H4:H11)/COUNT(H4:H11)</f>
         <v>264.125</v>
       </c>
       <c r="H14" s="8" t="n">
-        <f aca="false">SUM(H4:H11)/COUNT(H4:H11)</f>
+        <f aca="false">SUM(I4:I11)/COUNT(I4:I11)</f>
         <v>1.46736111111111</v>
       </c>
       <c r="J14" s="8" t="n">
-        <f aca="false">SUM(I5:J11)/COUNT(I5:J11)</f>
+        <f aca="false">SUM(J5:K11)/COUNT(J5:K11)</f>
         <v>1794.28571428571</v>
       </c>
       <c r="K14" s="8" t="n">
-        <f aca="false">SUM(K4:K11)/COUNT(K4:K11)</f>
+        <f aca="false">SUM(M4:M11)/COUNT(M4:M11)</f>
         <v>246.714285714286</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="8" t="n">
-        <f aca="false">SUM(N4:N11)/COUNT(N4:N11)</f>
+        <f aca="false">SUM(P4:P11)/COUNT(P4:P11)</f>
         <v>75.8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="J15" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/experimental_data/GEC/Winkler1965.xlsx
+++ b/experimental_data/GEC/Winkler1965.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>Winkler1965 – Determination of hepatic flow in man</t>
   </si>
@@ -26,6 +26,9 @@
     <t>status</t>
   </si>
   <si>
+    <t>sample</t>
+  </si>
+  <si>
     <t>subject</t>
   </si>
   <si>
@@ -50,13 +53,10 @@
     <t>amount galactose infused [mmol/min]</t>
   </si>
   <si>
-    <t>hepatic blood flow [ml/min] M1</t>
-  </si>
-  <si>
-    <t>hepatic blood flow [ml/min] M2</t>
-  </si>
-  <si>
-    <t>hepatic blood flow [ml/min]</t>
+    <t>hepatic blood flow Bromsulfalein [ml/min]</t>
+  </si>
+  <si>
+    <t>hepatic blood flow galactose [ml/min]</t>
   </si>
   <si>
     <t>arterial concentrations galactose [mg/l]</t>
@@ -65,13 +65,16 @@
     <t>arterial concentrations galactose [mmol/l]</t>
   </si>
   <si>
-    <t>Arterio-hepatovenous extraction (per cent) M1</t>
-  </si>
-  <si>
-    <t>Arterio-hepatovenous extraction (per cent) M2</t>
-  </si>
-  <si>
-    <t>GE estimate: R = I – (DeltaP x V) [mmol/min]</t>
+    <t>Galactose arterio-hepatovenous extraction [percent]</t>
+  </si>
+  <si>
+    <t>Galactose extraction ratio [-]</t>
+  </si>
+  <si>
+    <t>Galactose clearance ER*Q [ml/min]</t>
+  </si>
+  <si>
+    <t>venous concentration galactose (1-ER)*ca [mmol/l]</t>
   </si>
   <si>
     <t>height</t>
@@ -89,10 +92,10 @@
     <t>galInfused</t>
   </si>
   <si>
-    <t>bloodflowM1</t>
-  </si>
-  <si>
-    <t>bloodflowM2</t>
+    <t>bloodflowBS</t>
+  </si>
+  <si>
+    <t>bloodflowGal</t>
   </si>
   <si>
     <t>flowLiver</t>
@@ -101,16 +104,19 @@
     <t>galAmg</t>
   </si>
   <si>
-    <t>galA</t>
-  </si>
-  <si>
-    <t>extractionM1</t>
-  </si>
-  <si>
-    <t>extractionM2</t>
-  </si>
-  <si>
-    <t>GEC</t>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>cv</t>
   </si>
   <si>
     <t>win1965</t>
@@ -126,12 +132,6 @@
   </si>
   <si>
     <t>female</t>
-  </si>
-  <si>
-    <t>Measurements by indirect method of Bradley</t>
-  </si>
-  <si>
-    <t>S.D [%] 7</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +196,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -245,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,19 +260,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,15 +345,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>667800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:colOff>663120</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -382,8 +368,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152280" y="3103200"/>
-          <a:ext cx="2953800" cy="3204360"/>
+          <a:off x="147960" y="4889880"/>
+          <a:ext cx="2953440" cy="3204000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -398,15 +384,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>803520</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>397800</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:colOff>740880</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -421,8 +407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3241800" y="3048840"/>
-          <a:ext cx="3195360" cy="6094440"/>
+          <a:off x="3247920" y="4885920"/>
+          <a:ext cx="3195000" cy="6094080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -437,15 +423,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:colOff>922680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>153360</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:colOff>136800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -460,8 +446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6525000" y="3140640"/>
-          <a:ext cx="5402520" cy="5017680"/>
+          <a:off x="6624720" y="5109840"/>
+          <a:ext cx="5402160" cy="5017320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,26 +467,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B11"/>
+      <selection pane="topLeft" activeCell="T14" activeCellId="0" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0357142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4285714285714"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="14.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.2959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.0357142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.4285714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.4540816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="14.3265306122449"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,6 +497,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -550,598 +540,1169 @@
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="T2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="I4" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="J4" s="7" t="n">
-        <f aca="false">I4/180</f>
+      <c r="K4" s="6" t="n">
+        <f aca="false">J4/180</f>
         <v>1.17222222222222</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>35</v>
+      <c r="L4" s="0" t="n">
+        <v>2040</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">L4</f>
+        <v>2040</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="J5" s="7" t="n">
-        <f aca="false">I5/180</f>
+      <c r="K5" s="6" t="n">
+        <f aca="false">J5/180</f>
         <v>1.23888888888889</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
+        <v>2430</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <v>2390</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>2600</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">0.5*(K5+L5)</f>
-        <v>2495</v>
-      </c>
       <c r="N5" s="0" t="n">
+        <f aca="false">L5</f>
+        <v>2430</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="O5" s="7" t="n">
-        <f aca="false">N5/180</f>
+      <c r="P5" s="6" t="n">
+        <f aca="false">O5/180</f>
         <v>0.844444444444444</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>81.6</v>
       </c>
-      <c r="Q5" s="0" t="n">
-        <v>71.7</v>
-      </c>
       <c r="R5" s="0" t="n">
-        <f aca="false">0.5/100*(Q5+P5)*O5*0.5/1000*(K5+L5)</f>
-        <v>1.61493033333333</v>
+        <f aca="false">Q5/100</f>
+        <v>0.816</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false"> R5*N5</f>
+        <v>1982.88</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">(1-R5)*P5</f>
+        <v>0.155377777777778</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="I6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="J6" s="7" t="n">
-        <f aca="false">I6/180</f>
+      <c r="K6" s="6" t="n">
+        <f aca="false">J6/180</f>
         <v>1.02777777777778</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
+        <v>2180</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>2250</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">0.5*(K6+L6)</f>
-        <v>2125</v>
-      </c>
       <c r="N6" s="0" t="n">
+        <f aca="false">L6</f>
+        <v>2180</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="O6" s="7" t="n">
-        <f aca="false">N6/180</f>
+      <c r="P6" s="6" t="n">
+        <f aca="false">O6/180</f>
         <v>0.894444444444444</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>65.8</v>
       </c>
-      <c r="Q6" s="0" t="n">
-        <v>58.4</v>
-      </c>
       <c r="R6" s="0" t="n">
-        <f aca="false">0.5/100*(Q6+P6)*O6*0.5/1000*(K6+L6)</f>
-        <v>1.18033125</v>
+        <f aca="false">Q6/100</f>
+        <v>0.658</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false"> R6*N6</f>
+        <v>1434.44</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">(1-R6)*P6</f>
+        <v>0.3059</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="J7" s="7" t="n">
-        <f aca="false">I7/180</f>
+      <c r="K7" s="6" t="n">
+        <f aca="false">J7/180</f>
         <v>1.48333333333333</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
+        <v>1960</v>
+      </c>
+      <c r="M7" s="0" t="n">
         <v>1450</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>1510</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <f aca="false">0.5*(K7+L7)</f>
-        <v>1480</v>
-      </c>
       <c r="N7" s="0" t="n">
+        <f aca="false">L7</f>
+        <v>1960</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <f aca="false">N7/180</f>
+      <c r="P7" s="6" t="n">
+        <f aca="false">O7/180</f>
         <v>1.92222222222222</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>67.3</v>
       </c>
-      <c r="Q7" s="0" t="n">
-        <v>65.3</v>
-      </c>
       <c r="R7" s="0" t="n">
-        <f aca="false">0.5/100*(Q7+P7)*O7*0.5/1000*(K7+L7)</f>
-        <v>1.88616133333333</v>
+        <f aca="false">Q7/100</f>
+        <v>0.673</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false"> R7*N7</f>
+        <v>1319.08</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">(1-R7)*P7</f>
+        <v>0.628566666666666</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="I8" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="J8" s="0" t="n">
         <v>366</v>
       </c>
-      <c r="J8" s="7" t="n">
-        <f aca="false">I8/180</f>
+      <c r="K8" s="6" t="n">
+        <f aca="false">J8/180</f>
         <v>2.03333333333333</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="L8" s="0" t="n">
+        <v>1470</v>
+      </c>
+      <c r="M8" s="0" t="n">
         <v>1780</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>1680</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <f aca="false">0.5*(K8+L8)</f>
-        <v>1730</v>
-      </c>
       <c r="N8" s="0" t="n">
+        <f aca="false">L8</f>
+        <v>1470</v>
+      </c>
+      <c r="O8" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="O8" s="7" t="n">
-        <f aca="false">N8/180</f>
+      <c r="P8" s="6" t="n">
+        <f aca="false">O8/180</f>
         <v>1.50555555555556</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="Q8" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="Q8" s="0" t="n">
-        <v>98.5</v>
-      </c>
       <c r="R8" s="0" t="n">
-        <f aca="false">0.5/100*(Q8+P8)*O8*0.5/1000*(K8+L8)</f>
-        <v>2.49391513888889</v>
+        <f aca="false">Q8/100</f>
+        <v>0.93</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false"> R8*N8</f>
+        <v>1367.1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">(1-R8)*P8</f>
+        <v>0.105388888888889</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="J9" s="7" t="n">
-        <f aca="false">I9/180</f>
+      <c r="K9" s="6" t="n">
+        <f aca="false">J9/180</f>
         <v>1.69444444444444</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
+        <v>1260</v>
+      </c>
+      <c r="M9" s="0" t="n">
         <v>1580</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>1800</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <f aca="false">0.5*(K9+L9)</f>
-        <v>1690</v>
-      </c>
       <c r="N9" s="0" t="n">
+        <f aca="false">L9</f>
+        <v>1260</v>
+      </c>
+      <c r="O9" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="O9" s="7" t="n">
-        <f aca="false">N9/180</f>
+      <c r="P9" s="6" t="n">
+        <f aca="false">O9/180</f>
         <v>1.63333333333333</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>77.6</v>
       </c>
-      <c r="Q9" s="0" t="n">
-        <v>68.4</v>
-      </c>
       <c r="R9" s="0" t="n">
-        <f aca="false">0.5/100*(Q9+P9)*O9*0.5/1000*(K9+L9)</f>
-        <v>2.01504333333333</v>
+        <f aca="false">Q9/100</f>
+        <v>0.776</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false"> R9*N9</f>
+        <v>977.76</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">(1-R9)*P9</f>
+        <v>0.365866666666666</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="J10" s="7" t="n">
-        <f aca="false">I10/180</f>
+      <c r="K10" s="6" t="n">
+        <f aca="false">J10/180</f>
         <v>1.49444444444444</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
+        <v>1440</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>1450</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>1730</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <f aca="false">0.5*(K10+L10)</f>
-        <v>1590</v>
-      </c>
       <c r="N10" s="0" t="n">
+        <f aca="false">L10</f>
+        <v>1440</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="O10" s="7" t="n">
-        <f aca="false">N10/180</f>
+      <c r="P10" s="6" t="n">
+        <f aca="false">O10/180</f>
         <v>1.31666666666667</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>92.8</v>
       </c>
-      <c r="Q10" s="0" t="n">
-        <v>78.1</v>
-      </c>
       <c r="R10" s="0" t="n">
-        <f aca="false">0.5/100*(Q10+P10)*O10*0.5/1000*(K10+L10)</f>
-        <v>1.78889575</v>
+        <f aca="false">Q10/100</f>
+        <v>0.928</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false"> R10*N10</f>
+        <v>1336.32</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">(1-R10)*P10</f>
+        <v>0.0948000000000003</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <f aca="false">J11/180</f>
+        <v>1.59444444444444</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1410</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1470</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">L11</f>
+        <v>1410</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <f aca="false">O11/180</f>
+        <v>1.47777777777778</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">Q11/100</f>
+        <v>0.853</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false"> R11*N11</f>
+        <v>1202.73</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">(1-R11)*P11</f>
+        <v>0.217233333333334</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F12" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <f aca="false">J12/180</f>
+        <v>1.17222222222222</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">L12</f>
+        <v>1900</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <f aca="false">J13/180</f>
+        <v>1.23888888888889</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>2420</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>2600</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">L13</f>
+        <v>2420</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <f aca="false">O13/180</f>
+        <v>0.844444444444444</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">Q13/100</f>
+        <v>0.717</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false"> R13*N13</f>
+        <v>1735.14</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">(1-R13)*P13</f>
+        <v>0.238977777777778</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <f aca="false">J14/180</f>
+        <v>1.02777777777778</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2780</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">L14</f>
+        <v>2780</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <f aca="false">O14/180</f>
+        <v>0.894444444444444</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">Q14/100</f>
+        <v>0.584</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false"> R14*N14</f>
+        <v>1623.52</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">(1-R14)*P14</f>
+        <v>0.372088888888889</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <f aca="false">J15/180</f>
+        <v>1.48333333333333</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1480</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>1510</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">L15</f>
+        <v>1480</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <f aca="false">O15/180</f>
+        <v>1.92222222222222</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">Q15/100</f>
+        <v>0.653</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false"> R15*N15</f>
+        <v>966.44</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">(1-R15)*P15</f>
+        <v>0.667011111111111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <f aca="false">J16/180</f>
+        <v>2.03333333333333</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1460</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>1680</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">L16</f>
+        <v>1460</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <f aca="false">O16/180</f>
+        <v>1.50555555555556</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">Q16/100</f>
+        <v>0.985</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false"> R16*N16</f>
+        <v>1438.1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">(1-R16)*P16</f>
+        <v>0.0225833333333334</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>305</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <f aca="false">J17/180</f>
+        <v>1.69444444444444</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1280</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">L17</f>
+        <v>1280</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <f aca="false">O17/180</f>
+        <v>1.63333333333333</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">Q17/100</f>
+        <v>0.684</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false"> R17*N17</f>
+        <v>875.52</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">(1-R17)*P17</f>
+        <v>0.516133333333333</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <f aca="false">J18/180</f>
+        <v>1.49444444444444</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1230</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>1730</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">L18</f>
+        <v>1230</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <f aca="false">O18/180</f>
+        <v>1.31666666666667</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">Q18/100</f>
+        <v>0.781</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <f aca="false"> R18*N18</f>
+        <v>960.63</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">(1-R18)*P18</f>
+        <v>0.28835</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="J11" s="7" t="n">
-        <f aca="false">I11/180</f>
+      <c r="K19" s="6" t="n">
+        <f aca="false">J19/180</f>
         <v>1.59444444444444</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>1470</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="L19" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="M19" s="0" t="n">
         <v>1430</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <f aca="false">0.5*(K11+L11)</f>
-        <v>1450</v>
-      </c>
-      <c r="N11" s="0" t="n">
+      <c r="N19" s="0" t="n">
+        <f aca="false">L19</f>
+        <v>1100</v>
+      </c>
+      <c r="O19" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="O11" s="7" t="n">
-        <f aca="false">N11/180</f>
+      <c r="P19" s="6" t="n">
+        <f aca="false">O19/180</f>
         <v>1.47777777777778</v>
       </c>
-      <c r="P11" s="0" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>90.2</v>
       </c>
-      <c r="R11" s="0" t="n">
-        <f aca="false">0.5/100*(Q11+P11)*O11*0.5/1000*(K11+L11)</f>
-        <v>1.8802875</v>
-      </c>
-    </row>
-    <row r="12" s="7" customFormat="true" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="8" t="n">
-        <f aca="false">SUM(I4:I11)/COUNT(I4:I11)</f>
-        <v>264.125</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <f aca="false">SUM(J4:J11)/COUNT(J4:J11)</f>
-        <v>1.46736111111111</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <f aca="false">SUM(K5:L11)/COUNT(K5:L11)</f>
-        <v>1794.28571428571</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <f aca="false">SUM(N4:N11)/COUNT(N4:N11)</f>
-        <v>246.714285714286</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8" t="n">
-        <f aca="false">SUM(Q4:Q11)/COUNT(Q4:Q11)</f>
-        <v>75.8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="R19" s="0" t="n">
+        <f aca="false">Q19/100</f>
+        <v>0.902</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false"> R19*N19</f>
+        <v>992.2</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">(1-R19)*P19</f>
+        <v>0.144822222222222</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/experimental_data/GEC/Winkler1965.xlsx
+++ b/experimental_data/GEC/Winkler1965.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>Winkler1965 – Determination of hepatic flow in man</t>
   </si>
@@ -77,6 +77,9 @@
     <t>venous concentration galactose (1-ER)*ca [mmol/l]</t>
   </si>
   <si>
+    <t>Galactose elimination Q*(ca-cv)/1000 [mmol/min]</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
   </si>
   <si>
     <t>cv</t>
+  </si>
+  <si>
+    <t>GE</t>
   </si>
   <si>
     <t>win1965</t>
@@ -467,10 +473,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T14" activeCellId="0" sqref="T14"/>
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="A3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -560,6 +566,9 @@
       <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -581,54 +590,57 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -637,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>59</v>
@@ -662,37 +674,40 @@
         <v>2040</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">L4</f>
         <v>2040</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -701,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>23</v>
@@ -754,13 +769,17 @@
         <f aca="false">(1-R5)*P5</f>
         <v>0.155377777777778</v>
       </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">N5*(P5-T5)/1000</f>
+        <v>1.674432</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -769,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>52</v>
@@ -822,13 +841,17 @@
         <f aca="false">(1-R6)*P6</f>
         <v>0.3059</v>
       </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">N6*(P6-T6)/1000</f>
+        <v>1.28302688888889</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -837,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>51</v>
@@ -890,13 +913,17 @@
         <f aca="false">(1-R7)*P7</f>
         <v>0.628566666666666</v>
       </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">N7*(P7-T7)/1000</f>
+        <v>2.53556488888889</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -905,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>40</v>
@@ -958,13 +985,17 @@
         <f aca="false">(1-R8)*P8</f>
         <v>0.105388888888889</v>
       </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">N8*(P8-T8)/1000</f>
+        <v>2.05824500000001</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -973,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>19</v>
@@ -1026,13 +1057,17 @@
         <f aca="false">(1-R9)*P9</f>
         <v>0.365866666666666</v>
       </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">N9*(P9-T9)/1000</f>
+        <v>1.597008</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -1041,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>49</v>
@@ -1094,13 +1129,17 @@
         <f aca="false">(1-R10)*P10</f>
         <v>0.0948000000000003</v>
       </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">N10*(P10-T10)/1000</f>
+        <v>1.759488</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1109,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>17</v>
@@ -1162,13 +1201,17 @@
         <f aca="false">(1-R11)*P11</f>
         <v>0.217233333333334</v>
       </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">N11*(P11-T11)/1000</f>
+        <v>1.77736766666667</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -1177,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>59</v>
@@ -1202,37 +1245,40 @@
         <v>1900</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">L12</f>
         <v>1900</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
@@ -1241,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>23</v>
@@ -1294,13 +1340,17 @@
         <f aca="false">(1-R13)*P13</f>
         <v>0.238977777777778</v>
       </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">N13*(P13-T13)/1000</f>
+        <v>1.46522933333333</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -1309,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>52</v>
@@ -1362,13 +1412,17 @@
         <f aca="false">(1-R14)*P14</f>
         <v>0.372088888888889</v>
       </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">N14*(P14-T14)/1000</f>
+        <v>1.45214844444444</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2</v>
@@ -1377,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>51</v>
@@ -1430,13 +1484,17 @@
         <f aca="false">(1-R15)*P15</f>
         <v>0.667011111111111</v>
       </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">N15*(P15-T15)/1000</f>
+        <v>1.85771244444444</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -1445,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>40</v>
@@ -1498,13 +1556,17 @@
         <f aca="false">(1-R16)*P16</f>
         <v>0.0225833333333334</v>
       </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">N16*(P16-T16)/1000</f>
+        <v>2.16513944444444</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>2</v>
@@ -1513,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>19</v>
@@ -1566,13 +1628,17 @@
         <f aca="false">(1-R17)*P17</f>
         <v>0.516133333333333</v>
       </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">N17*(P17-T17)/1000</f>
+        <v>1.430016</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -1581,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>49</v>
@@ -1634,13 +1700,17 @@
         <f aca="false">(1-R18)*P18</f>
         <v>0.28835</v>
       </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">N18*(P18-T18)/1000</f>
+        <v>1.2648295</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2</v>
@@ -1649,7 +1719,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>17</v>
@@ -1701,6 +1771,10 @@
       <c r="T19" s="0" t="n">
         <f aca="false">(1-R19)*P19</f>
         <v>0.144822222222222</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">N19*(P19-T19)/1000</f>
+        <v>1.46625111111111</v>
       </c>
     </row>
   </sheetData>
